--- a/Jogos_da_Semana_FlashScore_2025-06-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-18.xlsx
@@ -962,10 +962,10 @@
         <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -974,10 +974,10 @@
         <v>3.75</v>
       </c>
       <c r="N5" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P5" t="n">
         <v>1.36</v>
@@ -1078,10 +1078,10 @@
         <v>1.03</v>
       </c>
       <c r="H6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1094,16 +1094,16 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="U6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="V6" t="n">
         <v>15.5</v>
       </c>
       <c r="W6" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="X6" t="n">
         <v>11.5</v>
@@ -1115,32 +1115,32 @@
         <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB6" t="n">
         <v>60</v>
       </c>
       <c r="AC6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AD6" t="n">
         <v>600</v>
       </c>
       <c r="AE6" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AF6" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AG6" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
         <v>600</v>
       </c>
       <c r="AJ6" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7">
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1191,26 +1191,26 @@
         <v>1.78</v>
       </c>
       <c r="O7" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="V7" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W7" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
         <v>25</v>
@@ -1219,13 +1219,13 @@
         <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD7" t="n">
         <v>300</v>
@@ -1234,19 +1234,19 @@
         <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AG7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1626,10 +1626,10 @@
         <v>15</v>
       </c>
       <c r="L11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
         <v>1.7</v>
@@ -2436,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I18" t="n">
         <v>3.45</v>
@@ -2446,21 +2446,21 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P18" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="U18" t="n">
         <v>7.7</v>
@@ -2478,22 +2478,22 @@
         <v>24</v>
       </c>
       <c r="Z18" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB18" t="n">
         <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD18" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF18" t="n">
         <v>14.5</v>
@@ -2680,16 +2680,16 @@
         <v>19</v>
       </c>
       <c r="L20" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N20" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O20" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P20" t="n">
         <v>1.22</v>
@@ -2790,28 +2790,28 @@
         <v>2.15</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
         <v>3.1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N21" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O21" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="P21" t="n">
         <v>1.33</v>
@@ -2820,16 +2820,16 @@
         <v>3.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V21" t="n">
         <v>9</v>
@@ -2844,7 +2844,7 @@
         <v>23</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA21" t="n">
         <v>7</v>
@@ -2859,7 +2859,7 @@
         <v>151</v>
       </c>
       <c r="AE21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
         <v>17</v>
@@ -2909,19 +2909,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L22" t="n">
         <v>1.25</v>
@@ -2930,10 +2930,10 @@
         <v>3.75</v>
       </c>
       <c r="N22" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O22" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P22" t="n">
         <v>1.36</v>
@@ -2957,7 +2957,7 @@
         <v>9</v>
       </c>
       <c r="W22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X22" t="n">
         <v>17</v>
@@ -2978,13 +2978,13 @@
         <v>41</v>
       </c>
       <c r="AD22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE22" t="n">
         <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
@@ -3031,13 +3031,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H23" t="n">
         <v>4.5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
@@ -3097,7 +3097,7 @@
         <v>17</v>
       </c>
       <c r="AC23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD23" t="n">
         <v>201</v>
@@ -3109,7 +3109,7 @@
         <v>34</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
         <v>67</v>
@@ -3397,13 +3397,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H26" t="n">
         <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J26" t="n">
         <v>1.03</v>
@@ -3454,7 +3454,7 @@
         <v>19</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
         <v>8.5</v>
@@ -3763,31 +3763,31 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J29" t="n">
         <v>1.08</v>
       </c>
       <c r="K29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N29" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O29" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P29" t="n">
         <v>1.5</v>
@@ -3805,10 +3805,10 @@
         <v>7</v>
       </c>
       <c r="U29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W29" t="n">
         <v>26</v>
@@ -3817,7 +3817,7 @@
         <v>23</v>
       </c>
       <c r="Y29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z29" t="n">
         <v>7.5</v>
@@ -4249,94 +4249,94 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="H33" t="n">
         <v>3.95</v>
       </c>
       <c r="I33" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="J33" t="n">
         <v>1.04</v>
       </c>
       <c r="K33" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="L33" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M33" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="N33" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O33" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="P33" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="R33" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S33" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="T33" t="n">
+        <v>15</v>
+      </c>
+      <c r="U33" t="n">
+        <v>26</v>
+      </c>
+      <c r="V33" t="n">
+        <v>14</v>
+      </c>
+      <c r="W33" t="n">
+        <v>65</v>
+      </c>
+      <c r="X33" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB33" t="n">
         <v>14.5</v>
       </c>
-      <c r="U33" t="n">
-        <v>27</v>
-      </c>
-      <c r="V33" t="n">
-        <v>15</v>
-      </c>
-      <c r="W33" t="n">
-        <v>75</v>
-      </c>
-      <c r="X33" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AC33" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AD33" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AE33" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="AF33" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AG33" t="n">
         <v>8.25</v>
       </c>
       <c r="AH33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI33" t="n">
         <v>12</v>
       </c>
       <c r="AJ33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -4371,94 +4371,94 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.57</v>
+        <v>2.82</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="J34" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K34" t="n">
-        <v>8.75</v>
+        <v>7.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="M34" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="N34" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O34" t="n">
-        <v>2.22</v>
+        <v>1.82</v>
       </c>
       <c r="P34" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.1</v>
+        <v>2.67</v>
       </c>
       <c r="R34" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="S34" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="T34" t="n">
-        <v>11.75</v>
+        <v>9</v>
       </c>
       <c r="U34" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="V34" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="W34" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X34" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Y34" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH34" t="n">
         <v>23</v>
       </c>
-      <c r="Z34" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>26</v>
-      </c>
       <c r="AI34" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ34" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
